--- a/data/pca/factorExposure/factorExposure_2017-04-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-04-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01991725558218237</v>
+        <v>0.01002932268059629</v>
       </c>
       <c r="C2">
-        <v>0.01294583263712806</v>
+        <v>-0.04269998679625756</v>
       </c>
       <c r="D2">
-        <v>-0.0344945970743207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02956457903091701</v>
+      </c>
+      <c r="E2">
+        <v>-0.03707772582877189</v>
+      </c>
+      <c r="F2">
+        <v>0.009573532697482448</v>
+      </c>
+      <c r="G2">
+        <v>0.09713110450636982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02001537462608812</v>
+        <v>0.04137630112052673</v>
       </c>
       <c r="C3">
-        <v>-0.01040264748177064</v>
+        <v>-0.102022502598792</v>
       </c>
       <c r="D3">
-        <v>-0.1053094985262637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01797551209250247</v>
+      </c>
+      <c r="E3">
+        <v>-0.101819257379651</v>
+      </c>
+      <c r="F3">
+        <v>0.005033754299209039</v>
+      </c>
+      <c r="G3">
+        <v>0.1674843119539575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02470320750716419</v>
+        <v>0.05641384202169506</v>
       </c>
       <c r="C4">
-        <v>0.004483167526875242</v>
+        <v>-0.06796487258791538</v>
       </c>
       <c r="D4">
-        <v>-0.08444367871166276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02445242320228017</v>
+      </c>
+      <c r="E4">
+        <v>-0.03198937461916883</v>
+      </c>
+      <c r="F4">
+        <v>0.01101073136437318</v>
+      </c>
+      <c r="G4">
+        <v>0.1010950484698883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0106574796273076</v>
+        <v>0.03666441354700305</v>
       </c>
       <c r="C6">
-        <v>0.01200808990397174</v>
+        <v>-0.05180688550666405</v>
       </c>
       <c r="D6">
-        <v>-0.0798038947927262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01707193151373599</v>
+      </c>
+      <c r="E6">
+        <v>-0.0363061075460878</v>
+      </c>
+      <c r="F6">
+        <v>0.00901901205543343</v>
+      </c>
+      <c r="G6">
+        <v>0.08279065386172174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.006000147562306588</v>
+        <v>0.02096450898199773</v>
       </c>
       <c r="C7">
-        <v>0.01161301915629821</v>
+        <v>-0.03966101874027115</v>
       </c>
       <c r="D7">
-        <v>-0.03366480571397056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01402511682517035</v>
+      </c>
+      <c r="E7">
+        <v>-0.006553152880739873</v>
+      </c>
+      <c r="F7">
+        <v>-0.003267790884597484</v>
+      </c>
+      <c r="G7">
+        <v>0.1216021436474222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001185945619469149</v>
+        <v>0.004089475701204937</v>
       </c>
       <c r="C8">
-        <v>-0.0003099348252241777</v>
+        <v>-0.02454130302299434</v>
       </c>
       <c r="D8">
-        <v>0.001806108923302038</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003918081947015818</v>
+      </c>
+      <c r="E8">
+        <v>-0.02854789631802142</v>
+      </c>
+      <c r="F8">
+        <v>0.006902023994317771</v>
+      </c>
+      <c r="G8">
+        <v>0.07056161370137008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01703197370495984</v>
+        <v>0.03397097258865131</v>
       </c>
       <c r="C9">
-        <v>0.001035104109523599</v>
+        <v>-0.0507692616472134</v>
       </c>
       <c r="D9">
-        <v>-0.06434768585127787</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01646046329977824</v>
+      </c>
+      <c r="E9">
+        <v>-0.02201318358926841</v>
+      </c>
+      <c r="F9">
+        <v>0.00706117045865006</v>
+      </c>
+      <c r="G9">
+        <v>0.1000844763235974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1015777350488731</v>
+        <v>0.09831870080968255</v>
       </c>
       <c r="C10">
-        <v>-0.1566525662905512</v>
+        <v>0.183176532668058</v>
       </c>
       <c r="D10">
-        <v>0.09648373276034782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01534842993616852</v>
+      </c>
+      <c r="E10">
+        <v>-0.01905300834522143</v>
+      </c>
+      <c r="F10">
+        <v>-0.02249488044560211</v>
+      </c>
+      <c r="G10">
+        <v>0.05859939052859789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0002261413670184516</v>
+        <v>0.0344601861818915</v>
       </c>
       <c r="C11">
-        <v>0.001516806060044561</v>
+        <v>-0.05380308470349894</v>
       </c>
       <c r="D11">
-        <v>-0.0538741172266985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002516633002108755</v>
+      </c>
+      <c r="E11">
+        <v>-0.01785060640766601</v>
+      </c>
+      <c r="F11">
+        <v>0.02076820147925627</v>
+      </c>
+      <c r="G11">
+        <v>0.09118815905690239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.004060631787853561</v>
+        <v>0.03600665379152491</v>
       </c>
       <c r="C12">
-        <v>0.004130217930395461</v>
+        <v>-0.04885845845898602</v>
       </c>
       <c r="D12">
-        <v>-0.0470280105729461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006570070800685185</v>
+      </c>
+      <c r="E12">
+        <v>-0.009537421691361641</v>
+      </c>
+      <c r="F12">
+        <v>0.00211824939536864</v>
+      </c>
+      <c r="G12">
+        <v>0.08311632322523047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02237313260392782</v>
+        <v>0.01566098452327324</v>
       </c>
       <c r="C13">
-        <v>0.005231531405747917</v>
+        <v>-0.04196063773732937</v>
       </c>
       <c r="D13">
-        <v>-0.03827941585459097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02645220309587042</v>
+      </c>
+      <c r="E13">
+        <v>-0.03684850696892712</v>
+      </c>
+      <c r="F13">
+        <v>0.005741009380112373</v>
+      </c>
+      <c r="G13">
+        <v>0.1360960280499638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007142850837411631</v>
+        <v>0.008453172384678182</v>
       </c>
       <c r="C14">
-        <v>0.002013583234219821</v>
+        <v>-0.02948430011455936</v>
       </c>
       <c r="D14">
-        <v>-0.01849663502255903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01018580564513722</v>
+      </c>
+      <c r="E14">
+        <v>-0.007060535143646835</v>
+      </c>
+      <c r="F14">
+        <v>-0.006790733964907424</v>
+      </c>
+      <c r="G14">
+        <v>0.1042910070441857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.002663053173833755</v>
+        <v>0.03300242311418432</v>
       </c>
       <c r="C16">
-        <v>-0.002419110117933273</v>
+        <v>-0.04691114140329353</v>
       </c>
       <c r="D16">
-        <v>-0.04286244155918376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002015583075946117</v>
+      </c>
+      <c r="E16">
+        <v>-0.01576467892152937</v>
+      </c>
+      <c r="F16">
+        <v>0.002215739104170026</v>
+      </c>
+      <c r="G16">
+        <v>0.0924172558519999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01250931006109258</v>
+        <v>0.02248781598658639</v>
       </c>
       <c r="C19">
-        <v>0.004659907208719097</v>
+        <v>-0.05236344952370054</v>
       </c>
       <c r="D19">
-        <v>-0.04308560082790579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01891687786572465</v>
+      </c>
+      <c r="E19">
+        <v>-0.07704831528528724</v>
+      </c>
+      <c r="F19">
+        <v>0.02140363891510003</v>
+      </c>
+      <c r="G19">
+        <v>0.1350286071727415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.00663411766816641</v>
+        <v>0.01508751896286593</v>
       </c>
       <c r="C20">
-        <v>0.009218071909245432</v>
+        <v>-0.04183060477821048</v>
       </c>
       <c r="D20">
-        <v>-0.03625748209655698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01430712846763466</v>
+      </c>
+      <c r="E20">
+        <v>-0.03745390225191565</v>
+      </c>
+      <c r="F20">
+        <v>-0.01147114916373485</v>
+      </c>
+      <c r="G20">
+        <v>0.1110531499220612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01663022761198054</v>
+        <v>0.01271361793208952</v>
       </c>
       <c r="C21">
-        <v>-0.001112559872617193</v>
+        <v>-0.03963085272502569</v>
       </c>
       <c r="D21">
-        <v>-0.02541466135251478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01912417440113354</v>
+      </c>
+      <c r="E21">
+        <v>-0.05113197938338596</v>
+      </c>
+      <c r="F21">
+        <v>0.001912068193305534</v>
+      </c>
+      <c r="G21">
+        <v>0.1331196012572012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001388402342503012</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0002157638389336108</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0005935615172189927</v>
+      </c>
+      <c r="E22">
+        <v>-0.003569564067425141</v>
+      </c>
+      <c r="F22">
+        <v>0.001779550586600851</v>
+      </c>
+      <c r="G22">
+        <v>0.00552826496258246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001393934822966218</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0002274710780636082</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0005923632518888428</v>
+      </c>
+      <c r="E23">
+        <v>-0.003556615680973508</v>
+      </c>
+      <c r="F23">
+        <v>0.001784796824242623</v>
+      </c>
+      <c r="G23">
+        <v>0.005419853541655188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0003368333205946585</v>
+        <v>0.02835886360312463</v>
       </c>
       <c r="C24">
-        <v>0.009053305137305885</v>
+        <v>-0.05143019947657499</v>
       </c>
       <c r="D24">
-        <v>-0.04633794787674852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007300946133770642</v>
+      </c>
+      <c r="E24">
+        <v>-0.01269220603296858</v>
+      </c>
+      <c r="F24">
+        <v>0.01244767360023338</v>
+      </c>
+      <c r="G24">
+        <v>0.09202179247758326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01474831693036362</v>
+        <v>0.04252117991292604</v>
       </c>
       <c r="C25">
-        <v>-0.002667305417200971</v>
+        <v>-0.05873131393129651</v>
       </c>
       <c r="D25">
-        <v>-0.0587054298439728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01126597104624105</v>
+      </c>
+      <c r="E25">
+        <v>-0.004374013563822118</v>
+      </c>
+      <c r="F25">
+        <v>0.00648159789063852</v>
+      </c>
+      <c r="G25">
+        <v>0.100054482368305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02036061450436429</v>
+        <v>0.01374747248497085</v>
       </c>
       <c r="C26">
-        <v>0.009579161283578589</v>
+        <v>-0.01241230374297532</v>
       </c>
       <c r="D26">
-        <v>-0.001581240812068055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02426999815297991</v>
+      </c>
+      <c r="E26">
+        <v>-0.009826939460297496</v>
+      </c>
+      <c r="F26">
+        <v>-0.008607830332691732</v>
+      </c>
+      <c r="G26">
+        <v>0.08277525511831385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1452764365684907</v>
+        <v>0.1242012137484704</v>
       </c>
       <c r="C28">
-        <v>-0.1982328358441859</v>
+        <v>0.2385235930657305</v>
       </c>
       <c r="D28">
-        <v>0.1194258317954389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006484810087542633</v>
+      </c>
+      <c r="E28">
+        <v>-0.007763425661058734</v>
+      </c>
+      <c r="F28">
+        <v>-0.01527920254987173</v>
+      </c>
+      <c r="G28">
+        <v>0.04318934986398855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01123213651659839</v>
+        <v>0.009152665143307247</v>
       </c>
       <c r="C29">
-        <v>-0.00450666442542037</v>
+        <v>-0.02323704328111159</v>
       </c>
       <c r="D29">
-        <v>-0.01967741200124934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009210500235584564</v>
+      </c>
+      <c r="E29">
+        <v>-0.00391572037227164</v>
+      </c>
+      <c r="F29">
+        <v>-0.01451507604885604</v>
+      </c>
+      <c r="G29">
+        <v>0.0962222209333382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01632691789698772</v>
+        <v>0.04131386696809538</v>
       </c>
       <c r="C30">
-        <v>0.01955900241196002</v>
+        <v>-0.07069779212250467</v>
       </c>
       <c r="D30">
-        <v>-0.1015645896310269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02910985389649755</v>
+      </c>
+      <c r="E30">
+        <v>-0.06039296614553046</v>
+      </c>
+      <c r="F30">
+        <v>0.04658288417590187</v>
+      </c>
+      <c r="G30">
+        <v>0.1294154748141879</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02004702296947503</v>
+        <v>0.05354119257089064</v>
       </c>
       <c r="C31">
-        <v>-0.02014839642561579</v>
+        <v>-0.03738235803739125</v>
       </c>
       <c r="D31">
-        <v>-0.03359277248615303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003793343865725995</v>
+      </c>
+      <c r="E31">
+        <v>-0.0006233770899847544</v>
+      </c>
+      <c r="F31">
+        <v>-0.04122380870137968</v>
+      </c>
+      <c r="G31">
+        <v>0.1005659908744812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.000466251275059379</v>
+        <v>0.002912144236716708</v>
       </c>
       <c r="C32">
-        <v>-0.01515780771544184</v>
+        <v>-0.02433969490296099</v>
       </c>
       <c r="D32">
-        <v>-0.005912810585837263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.003021260547413655</v>
+      </c>
+      <c r="E32">
+        <v>-0.03368178146865346</v>
+      </c>
+      <c r="F32">
+        <v>0.04237270327542275</v>
+      </c>
+      <c r="G32">
+        <v>0.08341372941285213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01148764660713305</v>
+        <v>0.02825223340483575</v>
       </c>
       <c r="C33">
-        <v>0.00338700189401466</v>
+        <v>-0.05065220155534417</v>
       </c>
       <c r="D33">
-        <v>-0.04411829700740303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01574620865988671</v>
+      </c>
+      <c r="E33">
+        <v>-0.04378440865759992</v>
+      </c>
+      <c r="F33">
+        <v>0.01579576866004789</v>
+      </c>
+      <c r="G33">
+        <v>0.1617709937676619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001812556601535667</v>
+        <v>0.03989081563627331</v>
       </c>
       <c r="C34">
-        <v>-0.01231076655306326</v>
+        <v>-0.05988689845169996</v>
       </c>
       <c r="D34">
-        <v>-0.05800563074412152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004440517459850178</v>
+      </c>
+      <c r="E34">
+        <v>-0.00805048848762073</v>
+      </c>
+      <c r="F34">
+        <v>0.02107686907234031</v>
+      </c>
+      <c r="G34">
+        <v>0.09452211428834266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01665161200836729</v>
+        <v>0.01621461020323441</v>
       </c>
       <c r="C36">
-        <v>-0.005376522462754391</v>
+        <v>-0.009874415800067015</v>
       </c>
       <c r="D36">
-        <v>-0.00520930139565532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01251889619381546</v>
+      </c>
+      <c r="E36">
+        <v>-0.008492064293488543</v>
+      </c>
+      <c r="F36">
+        <v>-0.007002265924374887</v>
+      </c>
+      <c r="G36">
+        <v>0.09080591328474766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.008310692663842136</v>
+        <v>0.03128163796200933</v>
       </c>
       <c r="C38">
-        <v>-0.02459121287490022</v>
+        <v>-0.03038312176793437</v>
       </c>
       <c r="D38">
-        <v>-0.04347745634745411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007441923457331068</v>
+      </c>
+      <c r="E38">
+        <v>-0.00711288065798994</v>
+      </c>
+      <c r="F38">
+        <v>-0.01814852985346025</v>
+      </c>
+      <c r="G38">
+        <v>0.08589397131266599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006733273390410612</v>
+        <v>0.03635919888300525</v>
       </c>
       <c r="C39">
-        <v>0.0259545129391557</v>
+        <v>-0.08062928738569759</v>
       </c>
       <c r="D39">
-        <v>-0.1007708791863679</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01177497516168671</v>
+      </c>
+      <c r="E39">
+        <v>-0.02927735780367315</v>
+      </c>
+      <c r="F39">
+        <v>0.02397734269561927</v>
+      </c>
+      <c r="G39">
+        <v>0.08879080396412642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01575856286633089</v>
+        <v>0.01390091221182426</v>
       </c>
       <c r="C40">
-        <v>-0.004057641402317888</v>
+        <v>-0.04026916014465084</v>
       </c>
       <c r="D40">
-        <v>-0.0357538611062743</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01484893171511092</v>
+      </c>
+      <c r="E40">
+        <v>-0.03259724059660625</v>
+      </c>
+      <c r="F40">
+        <v>-0.007310324599126903</v>
+      </c>
+      <c r="G40">
+        <v>0.1171597743515269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01395390355832384</v>
+        <v>0.02069223512405698</v>
       </c>
       <c r="C41">
-        <v>-0.01473435480357243</v>
+        <v>-0.002415663200924632</v>
       </c>
       <c r="D41">
-        <v>0.008683141168266699</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004421641503260598</v>
+      </c>
+      <c r="E41">
+        <v>-0.007550826881903738</v>
+      </c>
+      <c r="F41">
+        <v>-0.01531665249008636</v>
+      </c>
+      <c r="G41">
+        <v>0.08532910101576727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.06473950701409402</v>
+        <v>0.009191794095469739</v>
       </c>
       <c r="C42">
-        <v>0.0729527485126529</v>
+        <v>-0.0365986973878176</v>
       </c>
       <c r="D42">
-        <v>-0.1667512580211856</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08993006020931885</v>
+      </c>
+      <c r="E42">
+        <v>-0.02055941030968977</v>
+      </c>
+      <c r="F42">
+        <v>-0.04784266390811741</v>
+      </c>
+      <c r="G42">
+        <v>-0.03999264723947501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01523500262882409</v>
+        <v>0.03541958986710562</v>
       </c>
       <c r="C43">
-        <v>-0.01521652331152361</v>
+        <v>-0.01860668404168243</v>
       </c>
       <c r="D43">
-        <v>0.007205661177556162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005897773286935649</v>
+      </c>
+      <c r="E43">
+        <v>-0.02179544656195393</v>
+      </c>
+      <c r="F43">
+        <v>-0.006404109882478939</v>
+      </c>
+      <c r="G43">
+        <v>0.1210007354518351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.001851091223536007</v>
+        <v>0.01378939116410052</v>
       </c>
       <c r="C44">
-        <v>0.002661343233185082</v>
+        <v>-0.05913762631008587</v>
       </c>
       <c r="D44">
-        <v>-0.05625339520169732</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007042653644110767</v>
+      </c>
+      <c r="E44">
+        <v>-0.02502506062549164</v>
+      </c>
+      <c r="F44">
+        <v>-0.003183033448283796</v>
+      </c>
+      <c r="G44">
+        <v>0.113033706273423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01160037980559169</v>
+        <v>0.00811141584566585</v>
       </c>
       <c r="C46">
-        <v>5.696239142702929e-05</v>
+        <v>-0.01464200568690301</v>
       </c>
       <c r="D46">
-        <v>0.003509458745782752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0127231018975215</v>
+      </c>
+      <c r="E46">
+        <v>-0.001982897672420902</v>
+      </c>
+      <c r="F46">
+        <v>-0.01433903815185982</v>
+      </c>
+      <c r="G46">
+        <v>0.1060264313996149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.01406527684633285</v>
+        <v>0.07737811570877534</v>
       </c>
       <c r="C47">
-        <v>-0.02273814347710702</v>
+        <v>-0.06874911284250135</v>
       </c>
       <c r="D47">
-        <v>-0.07337153203750746</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004784414785847763</v>
+      </c>
+      <c r="E47">
+        <v>0.005562143750538856</v>
+      </c>
+      <c r="F47">
+        <v>-0.05385429509417839</v>
+      </c>
+      <c r="G47">
+        <v>0.08505067828508574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.009219700262234813</v>
+        <v>0.0189281627569376</v>
       </c>
       <c r="C48">
-        <v>-0.01115848922938706</v>
+        <v>-0.0131302648755481</v>
       </c>
       <c r="D48">
-        <v>-0.01888490560388612</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00222521983686859</v>
+      </c>
+      <c r="E48">
+        <v>-0.005011273004831807</v>
+      </c>
+      <c r="F48">
+        <v>-0.0183941325724538</v>
+      </c>
+      <c r="G48">
+        <v>0.09654829455721706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.02211471538238582</v>
+        <v>0.07582990879126862</v>
       </c>
       <c r="C50">
-        <v>-0.03134336751826715</v>
+        <v>-0.07175032481303352</v>
       </c>
       <c r="D50">
-        <v>-0.07101351197805993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0022155307833683</v>
+      </c>
+      <c r="E50">
+        <v>0.002494018742849779</v>
+      </c>
+      <c r="F50">
+        <v>-0.05671898009036462</v>
+      </c>
+      <c r="G50">
+        <v>0.09366902060195974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008734954971890524</v>
+        <v>0.01474855670422874</v>
       </c>
       <c r="C51">
-        <v>-0.002257157560833624</v>
+        <v>-0.03609332665129543</v>
       </c>
       <c r="D51">
-        <v>-0.01876514199465513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01074347423443425</v>
+      </c>
+      <c r="E51">
+        <v>-0.02595955722498722</v>
+      </c>
+      <c r="F51">
+        <v>0.02564053508192255</v>
+      </c>
+      <c r="G51">
+        <v>0.1239992081300001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.02394857499775248</v>
+        <v>0.08219804138947295</v>
       </c>
       <c r="C53">
-        <v>-0.03289460576235945</v>
+        <v>-0.08535204388075757</v>
       </c>
       <c r="D53">
-        <v>-0.1301264031117863</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00344551198951279</v>
+      </c>
+      <c r="E53">
+        <v>0.02483442789511468</v>
+      </c>
+      <c r="F53">
+        <v>-0.06380552337468699</v>
+      </c>
+      <c r="G53">
+        <v>0.09345393293219627</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01301436053298651</v>
+        <v>0.03213511854636999</v>
       </c>
       <c r="C54">
-        <v>-0.02466083997888939</v>
+        <v>-0.0188422758232466</v>
       </c>
       <c r="D54">
-        <v>0.004607229764756112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001498222921743911</v>
+      </c>
+      <c r="E54">
+        <v>-0.01799763495575927</v>
+      </c>
+      <c r="F54">
+        <v>-0.004936739178887033</v>
+      </c>
+      <c r="G54">
+        <v>0.1072017697847426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.01342241034549478</v>
+        <v>0.07248776206586778</v>
       </c>
       <c r="C55">
-        <v>-0.01978458213416549</v>
+        <v>-0.06848095433959216</v>
       </c>
       <c r="D55">
-        <v>-0.1040102364289966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00495375637921185</v>
+      </c>
+      <c r="E55">
+        <v>0.02231422987558812</v>
+      </c>
+      <c r="F55">
+        <v>-0.06363945191195038</v>
+      </c>
+      <c r="G55">
+        <v>0.07062721591764982</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.02485289358281607</v>
+        <v>0.1367127117003674</v>
       </c>
       <c r="C56">
-        <v>-0.04070549567729172</v>
+        <v>-0.1072932926757723</v>
       </c>
       <c r="D56">
-        <v>-0.160612106236859</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01239256789495726</v>
+      </c>
+      <c r="E56">
+        <v>0.03216095659297339</v>
+      </c>
+      <c r="F56">
+        <v>-0.08074390287169904</v>
+      </c>
+      <c r="G56">
+        <v>0.04413517322071725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02228029768536082</v>
+        <v>0.005414754485590323</v>
       </c>
       <c r="C57">
-        <v>0.008101830245507351</v>
+        <v>-0.00730314975796354</v>
       </c>
       <c r="D57">
-        <v>-0.03451425060196903</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02320999479538476</v>
+      </c>
+      <c r="E57">
+        <v>-0.02617370598778587</v>
+      </c>
+      <c r="F57">
+        <v>0.01041099909072033</v>
+      </c>
+      <c r="G57">
+        <v>0.02492625599496979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01566389875420126</v>
+        <v>0.05297368797910446</v>
       </c>
       <c r="C58">
-        <v>-0.01891266042950018</v>
+        <v>-0.04763967167872696</v>
       </c>
       <c r="D58">
-        <v>-0.1294873438681052</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02031499778392239</v>
+      </c>
+      <c r="E58">
+        <v>-0.91347141630909</v>
+      </c>
+      <c r="F58">
+        <v>-0.2710620197358359</v>
+      </c>
+      <c r="G58">
+        <v>-0.2238805420974125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1563040752701318</v>
+        <v>0.1596597140526806</v>
       </c>
       <c r="C59">
-        <v>-0.2220009994415745</v>
+        <v>0.2049049668697846</v>
       </c>
       <c r="D59">
-        <v>0.1025324808370897</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0116831556232252</v>
+      </c>
+      <c r="E59">
+        <v>-0.01893055338288583</v>
+      </c>
+      <c r="F59">
+        <v>-0.003602348563892815</v>
+      </c>
+      <c r="G59">
+        <v>0.0388221317938401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1284999855776222</v>
+        <v>0.2885834263963071</v>
       </c>
       <c r="C60">
-        <v>-0.1490954667678991</v>
+        <v>-0.1079060508063614</v>
       </c>
       <c r="D60">
-        <v>-0.1472143941489959</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01148467078460439</v>
+      </c>
+      <c r="E60">
+        <v>0.001087499202972169</v>
+      </c>
+      <c r="F60">
+        <v>0.3369461937306957</v>
+      </c>
+      <c r="G60">
+        <v>-0.1635278615707278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0018940872610034</v>
+        <v>0.0392348086652593</v>
       </c>
       <c r="C61">
-        <v>0.00344382638923234</v>
+        <v>-0.06651459825024328</v>
       </c>
       <c r="D61">
-        <v>-0.07712441962814388</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005502544056633612</v>
+      </c>
+      <c r="E61">
+        <v>-0.02376298504850138</v>
+      </c>
+      <c r="F61">
+        <v>0.01459788573654924</v>
+      </c>
+      <c r="G61">
+        <v>0.09609304281991581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006490807334847456</v>
+        <v>0.01566086433245181</v>
       </c>
       <c r="C63">
-        <v>0.004214127385850465</v>
+        <v>-0.03061747679544104</v>
       </c>
       <c r="D63">
-        <v>-0.02392040909881622</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008590883769569785</v>
+      </c>
+      <c r="E63">
+        <v>-0.003596798833539638</v>
+      </c>
+      <c r="F63">
+        <v>-0.01913011487340938</v>
+      </c>
+      <c r="G63">
+        <v>0.09392477254287729</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02079587588387517</v>
+        <v>0.04900607146251612</v>
       </c>
       <c r="C64">
-        <v>-0.01984227118688206</v>
+        <v>-0.04737608589760741</v>
       </c>
       <c r="D64">
-        <v>-0.06422298620628469</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006535954251573827</v>
+      </c>
+      <c r="E64">
+        <v>-0.009503915495060113</v>
+      </c>
+      <c r="F64">
+        <v>0.007988716702496734</v>
+      </c>
+      <c r="G64">
+        <v>0.1026036419371722</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.02253283318824074</v>
+        <v>0.07524604314678812</v>
       </c>
       <c r="C65">
-        <v>-0.001166907931350754</v>
+        <v>-0.05809821813569326</v>
       </c>
       <c r="D65">
-        <v>-0.115445988383205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01663800257315677</v>
+      </c>
+      <c r="E65">
+        <v>-0.03853026352130141</v>
+      </c>
+      <c r="F65">
+        <v>0.03024458047754347</v>
+      </c>
+      <c r="G65">
+        <v>0.03955133119476181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005269919834290569</v>
+        <v>0.05127628329411931</v>
       </c>
       <c r="C66">
-        <v>0.02330599872861651</v>
+        <v>-0.1074232519803304</v>
       </c>
       <c r="D66">
-        <v>-0.1361556011446527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01164320922285427</v>
+      </c>
+      <c r="E66">
+        <v>-0.0400985396743208</v>
+      </c>
+      <c r="F66">
+        <v>0.03587029659473964</v>
+      </c>
+      <c r="G66">
+        <v>0.1036440201303947</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.02253511454294632</v>
+        <v>0.05415914694115431</v>
       </c>
       <c r="C67">
-        <v>-0.0388462091707949</v>
+        <v>-0.03364068817870854</v>
       </c>
       <c r="D67">
-        <v>-0.06193849423313665</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005941427261147002</v>
+      </c>
+      <c r="E67">
+        <v>0.001208913776908751</v>
+      </c>
+      <c r="F67">
+        <v>-0.01696250934148077</v>
+      </c>
+      <c r="G67">
+        <v>0.07477280635956095</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1702781330532201</v>
+        <v>0.1552695232970927</v>
       </c>
       <c r="C68">
-        <v>-0.2092216992918843</v>
+        <v>0.2686570172950921</v>
       </c>
       <c r="D68">
-        <v>0.1460065077880684</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00565036972211143</v>
+      </c>
+      <c r="E68">
+        <v>-0.01312953421742916</v>
+      </c>
+      <c r="F68">
+        <v>-0.03697540565586562</v>
+      </c>
+      <c r="G68">
+        <v>0.02928332932171501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.01808027841483068</v>
+        <v>0.08299571141720793</v>
       </c>
       <c r="C69">
-        <v>-0.03497817543192067</v>
+        <v>-0.0701717463750996</v>
       </c>
       <c r="D69">
-        <v>-0.07998770664205933</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008821683736570387</v>
+      </c>
+      <c r="E69">
+        <v>0.02038634313134478</v>
+      </c>
+      <c r="F69">
+        <v>-0.03640798720291833</v>
+      </c>
+      <c r="G69">
+        <v>0.1028966559104725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1355964837078353</v>
+        <v>0.1403834273797938</v>
       </c>
       <c r="C71">
-        <v>-0.1770249805388478</v>
+        <v>0.2298430337552354</v>
       </c>
       <c r="D71">
-        <v>0.1015000608422141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002830078669052096</v>
+      </c>
+      <c r="E71">
+        <v>-0.03395041374316492</v>
+      </c>
+      <c r="F71">
+        <v>-0.02229908043813618</v>
+      </c>
+      <c r="G71">
+        <v>0.06763669865660617</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00690776812645945</v>
+        <v>0.08622112619508114</v>
       </c>
       <c r="C72">
-        <v>-0.01903377798188101</v>
+        <v>-0.06765274932688578</v>
       </c>
       <c r="D72">
-        <v>-0.1044469938334553</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008395832200721341</v>
+      </c>
+      <c r="E72">
+        <v>0.006831881073516523</v>
+      </c>
+      <c r="F72">
+        <v>0.04035775383270585</v>
+      </c>
+      <c r="G72">
+        <v>0.08948967069562608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1558567165709444</v>
+        <v>0.3767778215854527</v>
       </c>
       <c r="C73">
-        <v>-0.1697445181499979</v>
+        <v>-0.1156475954039548</v>
       </c>
       <c r="D73">
-        <v>-0.2708342414445918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02027303039478851</v>
+      </c>
+      <c r="E73">
+        <v>-0.07701070416055406</v>
+      </c>
+      <c r="F73">
+        <v>0.5745982709687643</v>
+      </c>
+      <c r="G73">
+        <v>-0.3003867088291881</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.02562079341181108</v>
+        <v>0.1051095818312476</v>
       </c>
       <c r="C74">
-        <v>-0.04390460322428603</v>
+        <v>-0.1091778909736373</v>
       </c>
       <c r="D74">
-        <v>-0.1731584832731468</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009459707179130339</v>
+      </c>
+      <c r="E74">
+        <v>0.007867782973847669</v>
+      </c>
+      <c r="F74">
+        <v>-0.069262329057368</v>
+      </c>
+      <c r="G74">
+        <v>0.08309416589411006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.06404556138697441</v>
+        <v>0.2475508744094679</v>
       </c>
       <c r="C75">
-        <v>-0.104928303716031</v>
+        <v>-0.1511953813407096</v>
       </c>
       <c r="D75">
-        <v>-0.2994455797735842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03065949664968335</v>
+      </c>
+      <c r="E75">
+        <v>0.06946901607967676</v>
+      </c>
+      <c r="F75">
+        <v>-0.1685679365722713</v>
+      </c>
+      <c r="G75">
+        <v>-0.0163871755584444</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.02904228613058987</v>
+        <v>0.1190926581404425</v>
       </c>
       <c r="C76">
-        <v>-0.058801521115139</v>
+        <v>-0.1095078065973458</v>
       </c>
       <c r="D76">
-        <v>-0.2093372601547032</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01808170515958973</v>
+      </c>
+      <c r="E76">
+        <v>0.02661098405179618</v>
+      </c>
+      <c r="F76">
+        <v>-0.1067077193629685</v>
+      </c>
+      <c r="G76">
+        <v>0.06135945661661875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0180465633598571</v>
+        <v>0.06875358845390052</v>
       </c>
       <c r="C77">
-        <v>-0.006067200875867573</v>
+        <v>-0.0592743470825085</v>
       </c>
       <c r="D77">
-        <v>-0.07423395314305657</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01092843031899702</v>
+      </c>
+      <c r="E77">
+        <v>-0.04802892396314092</v>
+      </c>
+      <c r="F77">
+        <v>0.01038506214554632</v>
+      </c>
+      <c r="G77">
+        <v>0.06596528716346327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.007901982000783153</v>
+        <v>0.04342203375173429</v>
       </c>
       <c r="C78">
-        <v>-0.003995817664460462</v>
+        <v>-0.04959874165191084</v>
       </c>
       <c r="D78">
-        <v>-0.06582792686837191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.005927197754012737</v>
+      </c>
+      <c r="E78">
+        <v>-0.02883622184541669</v>
+      </c>
+      <c r="F78">
+        <v>0.0379012688667749</v>
+      </c>
+      <c r="G78">
+        <v>0.1047552451721852</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0001164550558377772</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>7.120796205315614e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-3.071018455669004e-06</v>
+      </c>
+      <c r="E79">
+        <v>-0.000297672463799111</v>
+      </c>
+      <c r="F79">
+        <v>0.0001638731879518704</v>
+      </c>
+      <c r="G79">
+        <v>0.0004945633637251488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.02683350398326346</v>
+        <v>0.04343555891664742</v>
       </c>
       <c r="C80">
-        <v>-0.01686462771152712</v>
+        <v>-0.05147807946655496</v>
       </c>
       <c r="D80">
-        <v>-0.08445429455910965</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01330070561996236</v>
+      </c>
+      <c r="E80">
+        <v>-0.02538579240393658</v>
+      </c>
+      <c r="F80">
+        <v>0.01451509451833326</v>
+      </c>
+      <c r="G80">
+        <v>0.05473840849986426</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.03914231292412403</v>
+        <v>0.137120274778617</v>
       </c>
       <c r="C81">
-        <v>-0.06219038395642698</v>
+        <v>-0.09573205168593772</v>
       </c>
       <c r="D81">
-        <v>-0.1695905394829939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01478674617082436</v>
+      </c>
+      <c r="E81">
+        <v>0.03404287187534783</v>
+      </c>
+      <c r="F81">
+        <v>-0.1264811070942037</v>
+      </c>
+      <c r="G81">
+        <v>0.02412655904185936</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.133261876325573</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07835624791461161</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009193707508222071</v>
+      </c>
+      <c r="E82">
+        <v>0.1007719270512372</v>
+      </c>
+      <c r="F82">
+        <v>-0.05034783389603443</v>
+      </c>
+      <c r="G82">
+        <v>0.07495576075994637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01406795410814812</v>
+        <v>0.03617740591507387</v>
       </c>
       <c r="C83">
-        <v>-0.01244395942915903</v>
+        <v>-0.02916409543541283</v>
       </c>
       <c r="D83">
-        <v>-0.03139168672534378</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.005985868407728606</v>
+      </c>
+      <c r="E83">
+        <v>-0.03129312834333826</v>
+      </c>
+      <c r="F83">
+        <v>0.03049229171319672</v>
+      </c>
+      <c r="G83">
+        <v>0.05955238575199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.06052861666033695</v>
+        <v>0.2128533409195845</v>
       </c>
       <c r="C85">
-        <v>-0.07960688408380098</v>
+        <v>-0.1469752436315367</v>
       </c>
       <c r="D85">
-        <v>-0.2775956122227963</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01713943396048439</v>
+      </c>
+      <c r="E85">
+        <v>0.1024356006756035</v>
+      </c>
+      <c r="F85">
+        <v>-0.1218906143056672</v>
+      </c>
+      <c r="G85">
+        <v>-0.06023982096878166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01446812767580522</v>
+        <v>0.01441471823014296</v>
       </c>
       <c r="C86">
-        <v>-0.01068731018059949</v>
+        <v>-0.02535190267428533</v>
       </c>
       <c r="D86">
-        <v>-0.04688341499687614</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01158025347610222</v>
+      </c>
+      <c r="E86">
+        <v>-0.05041199613552331</v>
+      </c>
+      <c r="F86">
+        <v>0.01887001470453578</v>
+      </c>
+      <c r="G86">
+        <v>0.1893808810228887</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.003179204480122549</v>
+        <v>0.02144477414469127</v>
       </c>
       <c r="C87">
-        <v>0.01039604306414979</v>
+        <v>-0.02243491194923505</v>
       </c>
       <c r="D87">
-        <v>-0.04677967836322579</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01191886086135082</v>
+      </c>
+      <c r="E87">
+        <v>-0.093566968857907</v>
+      </c>
+      <c r="F87">
+        <v>0.009177011491734536</v>
+      </c>
+      <c r="G87">
+        <v>0.1225478894385028</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.03819983158284691</v>
+        <v>0.09466125752980034</v>
       </c>
       <c r="C88">
-        <v>-0.01346690909768616</v>
+        <v>-0.06867635228396797</v>
       </c>
       <c r="D88">
-        <v>-0.05776385858601303</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0221245899913578</v>
+      </c>
+      <c r="E88">
+        <v>0.002780224029652791</v>
+      </c>
+      <c r="F88">
+        <v>-0.02018043059497245</v>
+      </c>
+      <c r="G88">
+        <v>0.09836037160562708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.247129910065236</v>
+        <v>0.2321336691593227</v>
       </c>
       <c r="C89">
-        <v>-0.3173229656959286</v>
+        <v>0.3690801193538427</v>
       </c>
       <c r="D89">
-        <v>0.1813973332982471</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>8.219599141962135e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.01681816383337525</v>
+      </c>
+      <c r="F89">
+        <v>-0.02602820995794597</v>
+      </c>
+      <c r="G89">
+        <v>0.07142200572728948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2026541080171826</v>
+        <v>0.2075554130624749</v>
       </c>
       <c r="C90">
-        <v>-0.2658318188551752</v>
+        <v>0.318473885955159</v>
       </c>
       <c r="D90">
-        <v>0.1673194157085718</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004312653841594813</v>
+      </c>
+      <c r="E90">
+        <v>-0.002469589620037535</v>
+      </c>
+      <c r="F90">
+        <v>-0.04665812466497557</v>
+      </c>
+      <c r="G90">
+        <v>0.0507216305176173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.05317513272462363</v>
+        <v>0.1856843951905782</v>
       </c>
       <c r="C91">
-        <v>-0.09085793999252537</v>
+        <v>-0.1421640880604041</v>
       </c>
       <c r="D91">
-        <v>-0.2283675599161397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02169224991898272</v>
+      </c>
+      <c r="E91">
+        <v>0.06285556260476673</v>
+      </c>
+      <c r="F91">
+        <v>-0.1416522034005924</v>
+      </c>
+      <c r="G91">
+        <v>0.03486978709703071</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1613856720281356</v>
+        <v>0.1982041724848478</v>
       </c>
       <c r="C92">
-        <v>-0.2613194795063197</v>
+        <v>0.2571374473066794</v>
       </c>
       <c r="D92">
-        <v>0.06854248872528193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03782371487667489</v>
+      </c>
+      <c r="E92">
+        <v>-0.04455400782747534</v>
+      </c>
+      <c r="F92">
+        <v>-0.05781725029713825</v>
+      </c>
+      <c r="G92">
+        <v>0.114440469091588</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2110833296394322</v>
+        <v>0.2308528087024345</v>
       </c>
       <c r="C93">
-        <v>-0.2856703400635384</v>
+        <v>0.3146234454584243</v>
       </c>
       <c r="D93">
-        <v>0.134908477028793</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01120785433547853</v>
+      </c>
+      <c r="E93">
+        <v>-0.007234915071556364</v>
+      </c>
+      <c r="F93">
+        <v>-0.04210456126027057</v>
+      </c>
+      <c r="G93">
+        <v>0.05943336817673391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1014805292210473</v>
+        <v>0.3194423767488111</v>
       </c>
       <c r="C94">
-        <v>-0.1226219874649535</v>
+        <v>-0.1782911872244505</v>
       </c>
       <c r="D94">
-        <v>-0.3107806581965431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0181874944365217</v>
+      </c>
+      <c r="E94">
+        <v>0.215420314676418</v>
+      </c>
+      <c r="F94">
+        <v>-0.4793580584886</v>
+      </c>
+      <c r="G94">
+        <v>-0.4161495950673207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003957005267038699</v>
+        <v>0.1016132550139369</v>
       </c>
       <c r="C95">
-        <v>-0.008108081236522307</v>
+        <v>-0.08821939130805659</v>
       </c>
       <c r="D95">
-        <v>-0.1208325880383323</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01019004364440492</v>
+      </c>
+      <c r="E95">
+        <v>-0.08178540982455512</v>
+      </c>
+      <c r="F95">
+        <v>0.2054509036566314</v>
+      </c>
+      <c r="G95">
+        <v>-0.0124016694548194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.08622061187043473</v>
+        <v>0.1955889049031184</v>
       </c>
       <c r="C98">
-        <v>-0.1375152360852127</v>
+        <v>-0.04318457674408411</v>
       </c>
       <c r="D98">
-        <v>-0.1414103473464782</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01356751160506769</v>
+      </c>
+      <c r="E98">
+        <v>-0.06940181826755586</v>
+      </c>
+      <c r="F98">
+        <v>0.2357156691082367</v>
+      </c>
+      <c r="G98">
+        <v>-0.01511186982165026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01098602760301382</v>
+        <v>0.008937034511369351</v>
       </c>
       <c r="C101">
-        <v>-0.004432573614568427</v>
+        <v>-0.0232669534682389</v>
       </c>
       <c r="D101">
-        <v>-0.01965594597799551</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009053602974857211</v>
+      </c>
+      <c r="E101">
+        <v>-0.003738531779427976</v>
+      </c>
+      <c r="F101">
+        <v>-0.0154761259996978</v>
+      </c>
+      <c r="G101">
+        <v>0.09517249094007092</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.03933995210936696</v>
+        <v>0.1156897201915629</v>
       </c>
       <c r="C102">
-        <v>-0.04019744970324102</v>
+        <v>-0.08397442766071229</v>
       </c>
       <c r="D102">
-        <v>-0.1352817753096318</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.001165517610797212</v>
+      </c>
+      <c r="E102">
+        <v>0.03512382246671341</v>
+      </c>
+      <c r="F102">
+        <v>-0.03939903316548948</v>
+      </c>
+      <c r="G102">
+        <v>0.01567174171732991</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.7951764501182367</v>
+        <v>0.02102033459452532</v>
       </c>
       <c r="C104">
-        <v>0.5907555762984206</v>
+        <v>0.0305234219146145</v>
       </c>
       <c r="D104">
-        <v>0.03592265230747251</v>
+        <v>-0.9878572661306664</v>
+      </c>
+      <c r="E104">
+        <v>0.04851504772133366</v>
+      </c>
+      <c r="F104">
+        <v>-0.03407022282353821</v>
+      </c>
+      <c r="G104">
+        <v>-0.03718756969398653</v>
       </c>
     </row>
   </sheetData>
